--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H2">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>161.5663710272478</v>
+        <v>145.2427673020122</v>
       </c>
       <c r="R2">
-        <v>1454.09733924523</v>
+        <v>1307.18490571811</v>
       </c>
       <c r="S2">
-        <v>0.2192166761256003</v>
+        <v>0.2079434194729675</v>
       </c>
       <c r="T2">
-        <v>0.2192166761256003</v>
+        <v>0.2079434194729675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H3">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>67.32086179003733</v>
+        <v>65.45467760622932</v>
       </c>
       <c r="R3">
-        <v>605.887756110336</v>
+        <v>589.0920984560639</v>
       </c>
       <c r="S3">
-        <v>0.09134237194096557</v>
+        <v>0.09371116878844703</v>
       </c>
       <c r="T3">
-        <v>0.09134237194096562</v>
+        <v>0.09371116878844703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H4">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>5.604164984830889</v>
+        <v>13.50867278405267</v>
       </c>
       <c r="R4">
-        <v>50.437484863478</v>
+        <v>121.578055056474</v>
       </c>
       <c r="S4">
-        <v>0.007603849814927851</v>
+        <v>0.01934030632600325</v>
       </c>
       <c r="T4">
-        <v>0.007603849814927852</v>
+        <v>0.01934030632600324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H5">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>6.493807060445555</v>
+        <v>8.767114908886445</v>
       </c>
       <c r="R5">
-        <v>58.44426354401</v>
+        <v>78.904034179978</v>
       </c>
       <c r="S5">
-        <v>0.008810935036423832</v>
+        <v>0.01255183915131191</v>
       </c>
       <c r="T5">
-        <v>0.008810935036423833</v>
+        <v>0.01255183915131191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H6">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I6">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J6">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>5.251767520716</v>
+        <v>6.641403492427111</v>
       </c>
       <c r="R6">
-        <v>47.265907686444</v>
+        <v>59.772631431844</v>
       </c>
       <c r="S6">
-        <v>0.007125709467606884</v>
+        <v>0.009508467636418199</v>
       </c>
       <c r="T6">
-        <v>0.007125709467606886</v>
+        <v>0.009508467636418197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J7">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>166.1010216690906</v>
+        <v>153.5765216653661</v>
       </c>
       <c r="R7">
-        <v>1494.909195021815</v>
+        <v>1382.188694988295</v>
       </c>
       <c r="S7">
-        <v>0.2253693862148053</v>
+        <v>0.2198748182720564</v>
       </c>
       <c r="T7">
-        <v>0.2253693862148053</v>
+        <v>0.2198748182720564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J8">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>69.21034279517866</v>
@@ -948,10 +948,10 @@
         <v>622.893085156608</v>
       </c>
       <c r="S8">
-        <v>0.09390605981063795</v>
+        <v>0.09908813781962642</v>
       </c>
       <c r="T8">
-        <v>0.09390605981063797</v>
+        <v>0.09908813781962642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J9">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>5.761455949428777</v>
+        <v>14.28377479325033</v>
       </c>
       <c r="R9">
-        <v>51.853103544859</v>
+        <v>128.553973139253</v>
       </c>
       <c r="S9">
-        <v>0.00781726552900565</v>
+        <v>0.02045001640125804</v>
       </c>
       <c r="T9">
-        <v>0.00781726552900565</v>
+        <v>0.02045001640125804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>75.384209</v>
       </c>
       <c r="I10">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J10">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>6.67606742915611</v>
+        <v>9.270155325171222</v>
       </c>
       <c r="R10">
-        <v>60.084606862405</v>
+        <v>83.431397926541</v>
       </c>
       <c r="S10">
-        <v>0.009058229767153508</v>
+        <v>0.01327203986242789</v>
       </c>
       <c r="T10">
-        <v>0.00905822976715351</v>
+        <v>0.01327203986242789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>75.384209</v>
       </c>
       <c r="I11">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J11">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>5.399167816997999</v>
+        <v>7.022474621557556</v>
       </c>
       <c r="R11">
-        <v>48.592510352982</v>
+        <v>63.202271594018</v>
       </c>
       <c r="S11">
-        <v>0.007325705313310563</v>
+        <v>0.01005404546535779</v>
       </c>
       <c r="T11">
-        <v>0.007325705313310563</v>
+        <v>0.01005404546535778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H12">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>43.03127162664278</v>
+        <v>15.16805157280777</v>
       </c>
       <c r="R12">
-        <v>387.281444639785</v>
+        <v>136.51246415527</v>
       </c>
       <c r="S12">
-        <v>0.05838574126208231</v>
+        <v>0.02171603150629502</v>
       </c>
       <c r="T12">
-        <v>0.05838574126208233</v>
+        <v>0.02171603150629501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H13">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>17.93010681250133</v>
+        <v>6.835589434538666</v>
       </c>
       <c r="R13">
-        <v>161.370961312512</v>
+        <v>61.520304910848</v>
       </c>
       <c r="S13">
-        <v>0.02432794889816916</v>
+        <v>0.009786482780072771</v>
       </c>
       <c r="T13">
-        <v>0.02432794889816917</v>
+        <v>0.009786482780072771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H14">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I14">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J14">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>1.492602353877889</v>
+        <v>1.410743194135333</v>
       </c>
       <c r="R14">
-        <v>13.433421184901</v>
+        <v>12.696688747218</v>
       </c>
       <c r="S14">
-        <v>0.002025194504982572</v>
+        <v>0.002019754712995292</v>
       </c>
       <c r="T14">
-        <v>0.002025194504982573</v>
+        <v>0.002019754712995292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H15">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I15">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J15">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>1.729547886310555</v>
+        <v>0.9155708993495555</v>
       </c>
       <c r="R15">
-        <v>15.565930976795</v>
+        <v>8.240138094145999</v>
       </c>
       <c r="S15">
-        <v>0.002346687224738838</v>
+        <v>0.001310818756191856</v>
       </c>
       <c r="T15">
-        <v>0.002346687224738839</v>
+        <v>0.001310818756191856</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H16">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I16">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J16">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>1.398745501722</v>
+        <v>0.6935777427008889</v>
       </c>
       <c r="R16">
-        <v>12.588709515498</v>
+        <v>6.242199684308</v>
       </c>
       <c r="S16">
-        <v>0.001897847538962299</v>
+        <v>0.0009929921480197989</v>
       </c>
       <c r="T16">
-        <v>0.001897847538962299</v>
+        <v>0.0009929921480197987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H17">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>69.48478887540777</v>
+        <v>57.42405475046444</v>
       </c>
       <c r="R17">
-        <v>625.36309987867</v>
+        <v>516.81649275418</v>
       </c>
       <c r="S17">
-        <v>0.09427843406835636</v>
+        <v>0.08221376201119139</v>
       </c>
       <c r="T17">
-        <v>0.09427843406835637</v>
+        <v>0.08221376201119138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H18">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I18">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J18">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>28.95265789934933</v>
+        <v>25.87855533431467</v>
       </c>
       <c r="R18">
-        <v>260.573921094144</v>
+        <v>232.906998008832</v>
       </c>
       <c r="S18">
-        <v>0.03928357980279556</v>
+        <v>0.0370502117743886</v>
       </c>
       <c r="T18">
-        <v>0.03928357980279558</v>
+        <v>0.0370502117743886</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H19">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I19">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J19">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>2.410181143006889</v>
+        <v>5.340870185601334</v>
       </c>
       <c r="R19">
-        <v>21.691630287062</v>
+        <v>48.067831670412</v>
       </c>
       <c r="S19">
-        <v>0.003270184851409858</v>
+        <v>0.007646499925506293</v>
       </c>
       <c r="T19">
-        <v>0.003270184851409859</v>
+        <v>0.007646499925506292</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H20">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I20">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J20">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>2.792789178365555</v>
+        <v>3.466219322884889</v>
       </c>
       <c r="R20">
-        <v>25.13510260529</v>
+        <v>31.195973905964</v>
       </c>
       <c r="S20">
-        <v>0.00378931554201705</v>
+        <v>0.004962570681025383</v>
       </c>
       <c r="T20">
-        <v>0.003789315542017051</v>
+        <v>0.004962570681025383</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H21">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I21">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J21">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>2.258625697164</v>
+        <v>2.625785261830222</v>
       </c>
       <c r="R21">
-        <v>20.327631274476</v>
+        <v>23.632067356472</v>
       </c>
       <c r="S21">
-        <v>0.003064551210726003</v>
+        <v>0.003759324999718133</v>
       </c>
       <c r="T21">
-        <v>0.003064551210726003</v>
+        <v>0.003759324999718133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H22">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I22">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J22">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>43.40407246428612</v>
+        <v>51.968768367565</v>
       </c>
       <c r="R22">
-        <v>390.636652178575</v>
+        <v>467.7189153080849</v>
       </c>
       <c r="S22">
-        <v>0.05889156533899514</v>
+        <v>0.07440345292842918</v>
       </c>
       <c r="T22">
-        <v>0.05889156533899514</v>
+        <v>0.07440345292842915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H23">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I23">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J23">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>18.08544404949333</v>
+        <v>23.420092045056</v>
       </c>
       <c r="R23">
-        <v>162.76899644544</v>
+        <v>210.780828405504</v>
       </c>
       <c r="S23">
-        <v>0.02453871375322789</v>
+        <v>0.03353044089344558</v>
       </c>
       <c r="T23">
-        <v>0.02453871375322789</v>
+        <v>0.03353044089344558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H24">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I24">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J24">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>1.505533494110556</v>
+        <v>4.833487408071001</v>
       </c>
       <c r="R24">
-        <v>13.549801446995</v>
+        <v>43.501386672639</v>
       </c>
       <c r="S24">
-        <v>0.002042739750087083</v>
+        <v>0.006920082275242426</v>
       </c>
       <c r="T24">
-        <v>0.002042739750087083</v>
+        <v>0.006920082275242424</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H25">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I25">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J25">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>1.744531800947222</v>
+        <v>3.136928415887001</v>
       </c>
       <c r="R25">
-        <v>15.700786208525</v>
+        <v>28.232355742983</v>
       </c>
       <c r="S25">
-        <v>0.002367017717657107</v>
+        <v>0.004491126364213973</v>
       </c>
       <c r="T25">
-        <v>0.002367017717657107</v>
+        <v>0.004491126364213972</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H26">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I26">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J26">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>1.41086351439</v>
+        <v>2.376335607926</v>
       </c>
       <c r="R26">
-        <v>12.69777162951</v>
+        <v>21.387020471334</v>
       </c>
       <c r="S26">
-        <v>0.001914289515355263</v>
+        <v>0.003402189047389899</v>
       </c>
       <c r="T26">
-        <v>0.001914289515355263</v>
+        <v>0.003402189047389898</v>
       </c>
     </row>
   </sheetData>
